--- a/ExcelData/TAG_TEST_Tags.xlsx
+++ b/ExcelData/TAG_TEST_Tags.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UE4_Shloc_Suite\ShlocToolsSuite\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UE4_Projects\UE4_Shloc_Suite\ShlocToolsSuite\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DF1F31-8900-4511-8CD2-505C27EDF6E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49ECA95-D224-4C29-B0A3-343B849539A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24270" yWindow="3600" windowWidth="23040" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>LONGESTSTRING</t>
-  </si>
-  <si>
     <t>longest_name</t>
   </si>
   <si>
@@ -40,6 +34,12 @@
   </si>
   <si>
     <t>battle_text</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>longeststring</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,23 +371,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
